--- a/doc/セミナー/202306xx_パーソナルデータ連携モジュール_セミナー資料（接続事業者様向け）先行公開資料/接続事業者向けセミナー_STEP2-2手順詳細.xlsx
+++ b/doc/セミナー/202306xx_パーソナルデータ連携モジュール_セミナー資料（接続事業者様向け）先行公開資料/接続事業者向けセミナー_STEP2-2手順詳細.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_akiyama\Box\External：PxRドキュメント共有用\EX_PxR_NEC-NES-Partner\PxR_業務分析_パートナー共有\04.ドキュメント整備\03.執筆\10_セミナー向け\03_接続事業者向け\GitHub公開用（先行公開）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim-j\Box\EX_PxR_NEC-NES-Partner\PxR_業務分析_パートナー共有\04.ドキュメント整備\03.執筆\10_セミナー向け\03_接続事業者向け\GitHub公開用（先行公開）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EB9A76-3D75-4246-8A07-8A0BBC58FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9911A771-0476-4575-9BC9-B8E9EFA1F6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="963" xr2:uid="{F05412B3-2EED-4CA0-AD27-8ED689061A18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="963" xr2:uid="{F05412B3-2EED-4CA0-AD27-8ED689061A18}"/>
   </bookViews>
   <sheets>
     <sheet name="手順一覧" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="86">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -328,68 +328,6 @@
   </si>
   <si>
     <t>S22-2-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・手順書のメソッド及びパスが間違っている
-　×：pxr-block-proxy/ind/?block=$pxr-rootblock&amp;path=/identity-verificate/code
-　〇：pxr-block-proxy/pxr-block-proxy/ind/?block=$pxr-root-block&amp;path=/identity-verificate/code'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・手順書のメソッド及びパスが間違っている
-　×：pxr-block-proxy/?block=$pxr-root-block&amp;path=/identityverificate/url/issue
-　〇：pxr-block-proxy/pxr-block-proxy/?from_block=1000785&amp;from_path=/pxr-block-proxy/&amp;block=$pxr-root-block&amp;path=/identity-verificate/url/issue'
-・userIdの部分は任意設定値。pxrIdと同じでも問題ないが、app2と区別するため、識別子追加する。</t>
-    <rPh sb="248" eb="250">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・手順書のメソッド及びパスが間違っている
-　×：/pxr-block-proxy/ind/?block=$pxr-rootblock&amp;path=/identity-verificate/url/confirm
-　〇：/pxr-block-proxy/pxr-block-proxy/ind/?block=$pxr-root-block&amp;path=/identity-verificate/url/confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・手順書のメソッド及びパスが間違っている
-　×：pxr-block-proxy/ind/?block=$pxr-root-block&amp;path=/identity-verificate/ind/collate
-　〇：pxr-block-proxy/pxr-block-proxy/ind/?block=$pxr-root-block&amp;path=/identity-verificate/collate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・手順書のメソッド及びパスが間違っている
-　×：pxr-block-proxy/ind/?block=$pxr-root-block&amp;path=/bookmanage/ind/cooperate
-　〇：pxr-block-proxy/pxr-block-proxy/ind/?block=$pxr-root-block&amp;path=/book-manage/cooperate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・手順書のメソッド及びパスが間違っている
-　×：pxr-block-proxy/?block=$pxr-root-block&amp;path=/identityverificate/url/issue
-　〇：pxr-block-proxy/pxr-block-proxy/?from_block=1000785&amp;from_path=/pxr-block-proxy/&amp;block=$pxr-root-block&amp;path=/identity-verificate/url/issue'
-・userIdの部分は任意設定値。pxrIdと同じでも問題ないが、app1と区別するため、識別子追加する。</t>
-    <rPh sb="248" eb="250">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・手順書のメソッド及びパスが間違っている、個人用APIは公開されていない
-　×：pxr-block-proxy/ind/?block=$pxr-root-block&amp;path=/book-manage/ind
-　〇：pxr-block-proxy/pxr-block-proxy/ind/?block=$pxr-root-block&amp;path=/book-manage</t>
-    <rPh sb="21" eb="24">
-      <t>コジンヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウカイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1061,6 +999,26 @@
     </r>
     <rPh sb="450" eb="456">
       <t>ＤＮＳ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・userIdの部分は任意設定値。pxrIdと同じでも問題ないが、app1と区別するため、識別子追加する。</t>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・userIdの部分は任意設定値。pxrIdと同じでも問題ないが、app2と区別するため、識別子追加する。</t>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2569,9 +2527,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2762,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="112.5" x14ac:dyDescent="0.4">
@@ -2770,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -2802,9 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB4621-95C1-4D22-9356-0F2511E659F8}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2833,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="187.5" x14ac:dyDescent="0.4">
@@ -2841,16 +2795,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="C6" s="10"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2875,9 +2827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F933A9C6-1BCA-4BFA-8F3F-5F167F87951E}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2906,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="112.5" x14ac:dyDescent="0.4">
@@ -2914,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -2946,9 +2896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763D1F3-2E69-4258-8F0C-24838759358A}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2977,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="187.5" x14ac:dyDescent="0.4">
@@ -2985,15 +2933,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="93.75" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>7</v>
@@ -3019,9 +2967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9744B5E5-9205-444B-AF95-59F0BAC63519}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3050,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="187.5" x14ac:dyDescent="0.4">
@@ -3058,16 +3004,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="C6" s="10"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3092,9 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73B057B-7F9D-4BA5-8D68-0D2248F4D942}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3123,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="225" x14ac:dyDescent="0.4">
@@ -3131,16 +3073,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3165,9 +3105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D06487-B4FF-42C7-BBDC-935258EE0691}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3196,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="225" x14ac:dyDescent="0.4">
@@ -3204,16 +3142,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3238,9 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC46584-2351-415B-8B9E-9EB0F8A02397}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3269,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="150" x14ac:dyDescent="0.4">
@@ -3277,16 +3211,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3312,9 +3244,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3343,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="112.5" x14ac:dyDescent="0.4">
@@ -3351,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -3383,9 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E87A1C3-FF5A-4CC6-A580-3B21FE7808DA}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3414,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="187.5" x14ac:dyDescent="0.4">
@@ -3422,16 +3350,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="C6" s="10"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3456,9 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584C131-2479-4163-9A29-FB5F5C3117F0}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3487,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="112.5" x14ac:dyDescent="0.4">
@@ -3495,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -3527,9 +3451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19572E86-6DC5-4C3B-ABC3-EEADD4B9A3FF}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3558,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="187.5" x14ac:dyDescent="0.4">
@@ -3566,15 +3488,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="93.75" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>7</v>
@@ -3600,9 +3522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD04E4D-2F8C-44F7-A004-D9E1BDE380D7}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3631,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="187.5" x14ac:dyDescent="0.4">
@@ -3639,16 +3559,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="C6" s="10"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3673,9 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD0FA7B-D8F0-4323-BBA6-7F16A90DF07A}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3704,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="225" x14ac:dyDescent="0.4">
@@ -3712,16 +3628,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3746,9 +3660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389952B3-575D-4D49-AA86-1F7801FCFB85}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3777,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="225" x14ac:dyDescent="0.4">
@@ -3785,16 +3697,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3819,9 +3729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ACF087-B2C1-4F7E-8795-16FD31E4D827}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3850,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="150" x14ac:dyDescent="0.4">
@@ -3858,16 +3766,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
